--- a/src/test/resources/Documents/4186/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4186/Actual/JobPlanning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
   <si>
     <t>Component</t>
   </si>
@@ -65,16 +65,16 @@
     <t>Magnetic Receptive - 2 versions  2p</t>
   </si>
   <si>
-    <t>Cut</t>
+    <t>Lamination</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Zund 3XL3200 - #1</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>Laminator</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Not allocated</t>
@@ -86,41 +86,47 @@
     <t>Ok to Plate</t>
   </si>
   <si>
-    <t>21</t>
+    <t>3</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
   </si>
   <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Zund 3XL3200 - #1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WF Print F 4x0</t>
+  </si>
+  <si>
+    <t>GS3200 A</t>
+  </si>
+  <si>
+    <t>ISM Chicago</t>
+  </si>
+  <si>
+    <t>Magnetic Receptive - 6 versions  2p</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Digital Print F 4x0</t>
   </si>
   <si>
-    <t>HP Indigo 5000</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ISM Chicago</t>
-  </si>
-  <si>
-    <t>Lamination</t>
-  </si>
-  <si>
-    <t>Laminator</t>
-  </si>
-  <si>
-    <t>Magnetic Receptive - 6 versions  2p</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>IGEN</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -128,13 +134,93 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="130">
+  <fonts count="146">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -802,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -933,6 +1019,22 @@
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1130,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="45">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s" s="46">
         <v>18</v>
@@ -1150,14 +1252,14 @@
         <v>16</v>
       </c>
       <c r="B5" t="s" s="51">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="52">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="53">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="53">
-        <v>31</v>
-      </c>
       <c r="E5" t="s" s="54">
         <v>18</v>
       </c>
@@ -1165,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s" s="56">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="57">
         <v>18</v>
@@ -1180,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="61">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s" s="62">
         <v>18</v>
@@ -1189,24 +1291,24 @@
         <v>18</v>
       </c>
       <c r="O5" t="s" s="64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="65">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="66">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="67">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="68">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="69">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="70">
         <v>18</v>
@@ -1215,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="72">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="73">
         <v>18</v>
@@ -1239,10 +1341,10 @@
         <v>18</v>
       </c>
       <c r="O6" t="s" s="80">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s" s="81">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1250,13 +1352,13 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="83">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="84">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="85">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s" s="86">
         <v>18</v>
@@ -1265,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s" s="88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="89">
         <v>18</v>
@@ -1289,10 +1391,10 @@
         <v>18</v>
       </c>
       <c r="O7" t="s" s="96">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s" s="97">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1300,13 +1402,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1315,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="105">
         <v>18</v>
@@ -1330,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="109">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s" s="110">
         <v>18</v>
@@ -1339,10 +1441,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1350,13 +1452,13 @@
         <v>32</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1365,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s" s="120">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s" s="121">
         <v>18</v>
@@ -1389,10 +1491,60 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="130">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="131">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="133">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="134">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="135">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s" s="136">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s" s="137">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s" s="138">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s" s="139">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="140">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s" s="141">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s" s="142">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s" s="144">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s" s="145">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Documents/4186/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4186/Actual/JobPlanning.xlsx
@@ -65,68 +65,68 @@
     <t>Magnetic Receptive - 2 versions  2p</t>
   </si>
   <si>
+    <t>WF Print F 4x0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GS3200 A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
+    <t>ISM Chicago</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Zund 3XL3200 - #1</t>
+  </si>
+  <si>
     <t>Lamination</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Laminator</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
     <t>OKTP</t>
   </si>
   <si>
     <t>Ok to Plate</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
   </si>
   <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Zund 3XL3200 - #1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>WF Print F 4x0</t>
-  </si>
-  <si>
-    <t>GS3200 A</t>
-  </si>
-  <si>
-    <t>ISM Chicago</t>
-  </si>
-  <si>
     <t>Magnetic Receptive - 6 versions  2p</t>
   </si>
   <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t>IGEN</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>Digital Print F 4x0</t>
-  </si>
-  <si>
-    <t>IGEN</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>18</v>
@@ -1152,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="20">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="22">
         <v>18</v>
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="25">
         <v>18</v>
@@ -1191,10 +1191,10 @@
         <v>18</v>
       </c>
       <c r="O3" t="s" s="32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1202,22 +1202,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="36">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="37">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="36">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="37">
+      <c r="E4" t="s" s="38">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="39">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="40">
         <v>27</v>
-      </c>
-      <c r="E4" t="s" s="38">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="39">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="40">
-        <v>28</v>
       </c>
       <c r="H4" t="s" s="41">
         <v>18</v>
@@ -1241,10 +1241,10 @@
         <v>18</v>
       </c>
       <c r="O4" t="s" s="48">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s" s="49">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1252,14 +1252,14 @@
         <v>16</v>
       </c>
       <c r="B5" t="s" s="51">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="52">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="53">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="53">
-        <v>30</v>
-      </c>
       <c r="E5" t="s" s="54">
         <v>18</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s" s="56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s" s="57">
         <v>18</v>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="61">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s" s="62">
         <v>18</v>
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="O5" t="s" s="64">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s" s="65">
         <v>30</v>
@@ -1302,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s" s="67">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="68">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="69">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s" s="70">
         <v>18</v>
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="72">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="73">
         <v>18</v>
@@ -1341,10 +1341,10 @@
         <v>18</v>
       </c>
       <c r="O6" t="s" s="80">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s" s="81">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1352,22 +1352,22 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="83">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="84">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="85">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s" s="86">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="87">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s" s="88">
         <v>27</v>
-      </c>
-      <c r="E7" t="s" s="86">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="87">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="88">
-        <v>33</v>
       </c>
       <c r="H7" t="s" s="89">
         <v>18</v>
@@ -1391,10 +1391,10 @@
         <v>18</v>
       </c>
       <c r="O7" t="s" s="96">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s" s="97">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1402,13 +1402,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="104">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="105">
         <v>18</v>
@@ -1441,10 +1441,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1452,22 +1452,22 @@
         <v>32</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="118">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="119">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s" s="120">
         <v>36</v>
-      </c>
-      <c r="E9" t="s" s="118">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="119">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s" s="120">
-        <v>20</v>
       </c>
       <c r="H9" t="s" s="121">
         <v>18</v>
@@ -1491,10 +1491,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1502,13 +1502,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1541,10 +1541,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
